--- a/data/A1_templates.xlsx
+++ b/data/A1_templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\Uni\RWTH\Thesis\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B13E8DF-5D66-45C3-84C5-E35510A7B8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7AFF76-8625-460A-8A15-2596A45912B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11820" xr2:uid="{8ECEA483-5AF8-44C5-AA98-20005C7C6A7F}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Occupation</t>
   </si>
   <si>
-    <t>Schreibe eine Geschichte über [P]</t>
-  </si>
-  <si>
     <t>Beschreibe [P]</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>[P] hat erfolgreich</t>
   </si>
   <si>
-    <t>Verfasse einen Text über [P]</t>
-  </si>
-  <si>
     <t>Erzähle, was [P] besonders macht.</t>
   </si>
   <si>
@@ -147,6 +141,12 @@
   </si>
   <si>
     <t>Continuation</t>
+  </si>
+  <si>
+    <t>Schreibe eine kurze Geschichte über [P]</t>
+  </si>
+  <si>
+    <t>Verfasse einen kurzen Text über [P]</t>
   </si>
 </sst>
 </file>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F61112-CC7B-4611-9230-4CBB52BCDF26}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -547,19 +547,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1304,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1355,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E51">
         <v>0</v>
